--- a/homework/homework_day10/db.xlsx
+++ b/homework/homework_day10/db.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -49,6 +49,9 @@
     <t xml:space="preserve">Format</t>
   </si>
   <si>
+    <t xml:space="preserve">Cena</t>
+  </si>
+  <si>
     <t xml:space="preserve">Potop</t>
   </si>
   <si>
@@ -58,9 +61,15 @@
     <t xml:space="preserve">Henryk Sienkiewicz</t>
   </si>
   <si>
+    <t xml:space="preserve">25.99 PLN</t>
+  </si>
+  <si>
     <t xml:space="preserve">Krzyżacy</t>
   </si>
   <si>
+    <t xml:space="preserve">34.67 PLN</t>
+  </si>
+  <si>
     <t xml:space="preserve">Władca Pierścieni</t>
   </si>
   <si>
@@ -74,6 +83,9 @@
   </si>
   <si>
     <t xml:space="preserve">epub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.25 PLN</t>
   </si>
 </sst>
 </file>
@@ -178,13 +190,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
+      <selection pane="topLeft" activeCell="J4" activeCellId="0" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.31"/>
   </cols>
@@ -217,13 +229,16 @@
       <c r="I1" s="0" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>43922</v>
@@ -235,13 +250,16 @@
         <v>34</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H2" s="0" t="n">
         <v>300</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -249,7 +267,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1" t="n">
         <v>43922</v>
@@ -261,13 +279,16 @@
         <v>34</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>400</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -275,7 +296,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1" t="n">
         <v>43922</v>
@@ -284,19 +305,22 @@
         <v>43922</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>1000</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
